--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 10:28:50</t>
+    <t>Informação extraída do SIGBM: 08/12/2022 - 11:37:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/12/2022 - 11:37:07</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 12:03:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 12:03:42</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 12:27:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 12:27:09</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 12:39:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 12:39:44</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 12:48:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 12:48:05</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 01:14:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 01:14:30</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 01:35:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 01:35:59</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 01:47:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 01:47:40</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 01:56:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 01:56:48</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:12:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:12:42</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:28:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:28:16</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:37:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:37:30</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:46:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:46:45</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:55:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:55:17</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 03:12:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 03:12:04</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 03:33:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 03:33:32</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 03:48:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 03:48:28</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 03:56:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 03:56:11</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:09:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:09:31</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:25:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:25:00</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:35:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:35:04</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:42:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:42:04</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:51:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:51:30</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:59:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:59:44</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 05:22:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 05:22:12</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 05:39:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 05:39:03</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 05:48:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 05:48:39</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 05:57:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 05:57:11</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:12:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:12:37</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:28:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:28:23</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:37:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:37:54</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:47:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:47:27</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:55:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:55:57</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 07:11:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 07:11:24</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 07:31:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 07:31:44</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 07:43:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 07:43:09</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 07:52:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 07:52:13</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:00:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:00:50</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:17:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:17:02</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:27:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:27:39</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:37:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:37:14</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:45:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:45:54</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:54:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:54:39</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 09:11:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 09:11:31</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 09:48:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 09:48:26</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 10:11:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 10:11:57</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 10:33:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 10:33:42</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 10:43:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 10:43:25</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 10:52:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 10:52:13</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 11:01:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 11:01:17</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 11:19:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 11:19:16</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 11:31:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 11:31:21</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 11:40:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 11:40:03</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 11:49:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 11:49:21</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 11:57:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 11:57:44</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 12:14:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 12:14:08</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 12:29:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 12:29:37</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 12:40:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 12:40:09</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 12:49:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 12:49:11</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 12:57:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 12:57:34</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 01:16:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 01:16:44</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 01:42:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 01:42:35</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 01:56:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 01:56:38</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:10:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:10:07</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:27:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:27:28</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:37:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:37:58</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:46:22</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -24727,7 +24727,7 @@
         <v>33</v>
       </c>
       <c r="S195" s="0" t="s">
-        <v>148</v>
+        <v>621</v>
       </c>
       <c r="T195" s="0" t="s">
         <v>34</v>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:46:22</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 02:55:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 02:55:10</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 03:10:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 03:10:29</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 03:32:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 03:32:21</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 03:45:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 03:45:49</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 03:55:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 03:55:13</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:04:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:04:01</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:19:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:19:30</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:28:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:28:11</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:38:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:38:07</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:47:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:47:13</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 04:55:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 04:55:48</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 05:09:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 05:09:52</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 05:31:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 05:31:52</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 05:43:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 05:43:35</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 05:52:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 05:52:30</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:01:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:01:35</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:19:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:19:08</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:30:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:30:27</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:39:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:39:22</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:48:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:48:11</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 06:57:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 06:57:18</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 07:12:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 07:12:33</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 07:29:34</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -51827,13 +51827,13 @@
         <v>44</v>
       </c>
       <c r="N635" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O635" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P635" s="0" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="Q635" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 07:29:34</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 07:39:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 07:39:59</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 07:49:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 07:49:00</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 07:57:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 07:57:32</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:13:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:13:10</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:30:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:30:06</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:39:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:39:52</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:48:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-09.xlsx
+++ b/sigbm_download_2022-12-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/12/2022 - 08:48:30</t>
+    <t>Informação extraída do SIGBM: 09/12/2022 - 08:57:35</t>
   </si>
   <si>
     <t>ID Barragem</t>
